--- a/contactFiles/contacts.xlsx
+++ b/contactFiles/contacts.xlsx
@@ -20,9 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">contact_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashwanth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khan</t>
   </si>
 </sst>
 </file>
@@ -123,32 +147,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>11111</v>
+        <v>747777777</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>22222</v>
+      <c r="A3" s="1" t="n">
+        <v>747777778</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>33333</v>
+      <c r="A4" s="1" t="n">
+        <v>747777779</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/contactFiles/contacts.xlsx
+++ b/contactFiles/contacts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">contact_number</t>
   </si>
@@ -34,19 +34,7 @@
     <t xml:space="preserve">HRT</t>
   </si>
   <si>
-    <t xml:space="preserve">Yashwanth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khan</t>
+    <t xml:space="preserve">Rajesh</t>
   </si>
 </sst>
 </file>
@@ -150,10 +138,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
   </cols>
@@ -171,7 +159,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>747777777</v>
+        <v>7893454892</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -181,26 +169,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>747777778</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>747777779</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
